--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.18051283744012</v>
+        <v>112.5717140647961</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.6524679138026</v>
+        <v>154.0255854969077</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.1375657129431</v>
+        <v>139.325599793392</v>
       </c>
       <c r="AD2" t="n">
-        <v>88180.51283744012</v>
+        <v>112571.7140647961</v>
       </c>
       <c r="AE2" t="n">
-        <v>120652.4679138026</v>
+        <v>154025.5854969077</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280406658189958e-06</v>
+        <v>7.91987298987777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.550347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>109137.5657129431</v>
+        <v>139325.599793392</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.39531004461413</v>
+        <v>85.70117041739852</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.00377177292805</v>
+        <v>117.2601222338355</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.98656969497382</v>
+        <v>106.0689807434839</v>
       </c>
       <c r="AD3" t="n">
-        <v>61395.31004461413</v>
+        <v>85701.17041739852</v>
       </c>
       <c r="AE3" t="n">
-        <v>84003.77177292804</v>
+        <v>117260.1222338355</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.457238828744668e-06</v>
+        <v>1.009732061704709e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.783564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>75986.56969497382</v>
+        <v>106068.9807434839</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.24474311654913</v>
+        <v>69.52568458479877</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.32478299186273</v>
+        <v>95.12810890561293</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.84957563266076</v>
+        <v>86.04921570482402</v>
       </c>
       <c r="AD4" t="n">
-        <v>57244.74311654913</v>
+        <v>69525.68458479877</v>
       </c>
       <c r="AE4" t="n">
-        <v>78324.78299186274</v>
+        <v>95128.10890561293</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.857639063853073e-06</v>
+        <v>1.083816588255668e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.595486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>70849.57563266077</v>
+        <v>86049.21570482402</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.14506784223579</v>
+        <v>87.90886948350389</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1850411050128</v>
+        <v>120.2807934928883</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.24176700660026</v>
+        <v>108.8013633771124</v>
       </c>
       <c r="AD2" t="n">
-        <v>76145.06784223579</v>
+        <v>87908.86948350389</v>
       </c>
       <c r="AE2" t="n">
-        <v>104185.0411050128</v>
+        <v>120280.7934928883</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.010161862391329e-06</v>
+        <v>9.550141740015602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.136574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>94241.76700660026</v>
+        <v>108801.3633771124</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.12651152639843</v>
+        <v>65.97556451368713</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.05828096355191</v>
+        <v>90.27067800407659</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.99026256985735</v>
+        <v>81.6553711910817</v>
       </c>
       <c r="AD3" t="n">
-        <v>54126.51152639843</v>
+        <v>65975.56451368713</v>
       </c>
       <c r="AE3" t="n">
-        <v>74058.28096355191</v>
+        <v>90270.67800407659</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.102348679711733e-06</v>
+        <v>1.163201837363956e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.575231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>66990.26256985735</v>
+        <v>81655.37119108169</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.2115911321333</v>
+        <v>66.06064411942199</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.17469063356559</v>
+        <v>90.38708767409028</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.09556226434695</v>
+        <v>81.7606708855713</v>
       </c>
       <c r="AD4" t="n">
-        <v>54211.5911321333</v>
+        <v>66060.644119422</v>
       </c>
       <c r="AE4" t="n">
-        <v>74174.69063356559</v>
+        <v>90387.08767409027</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.104250213741787e-06</v>
+        <v>1.163564299096915e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.575231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>67095.56226434695</v>
+        <v>81760.67088557131</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.14595417642045</v>
+        <v>67.9874983042303</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.50717443686129</v>
+        <v>93.02349457655085</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.35070024500885</v>
+        <v>84.14546281348218</v>
       </c>
       <c r="AD2" t="n">
-        <v>47145.95417642045</v>
+        <v>67987.49830423031</v>
       </c>
       <c r="AE2" t="n">
-        <v>64507.17443686129</v>
+        <v>93023.49457655085</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.457350041699509e-06</v>
+        <v>1.375246568136644e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.717013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>58350.70024500885</v>
+        <v>84145.46281348218</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.7865889108929</v>
+        <v>60.8437258116647</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.12020737714724</v>
+        <v>83.24906989122806</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.61891039239864</v>
+        <v>75.3038955016323</v>
       </c>
       <c r="AD2" t="n">
-        <v>49786.5889108929</v>
+        <v>60843.72581166471</v>
       </c>
       <c r="AE2" t="n">
-        <v>68120.20737714724</v>
+        <v>83249.06989122806</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.369975656623668e-06</v>
+        <v>1.293325288521833e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.633101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>61618.91039239864</v>
+        <v>75303.8955016323</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.56257287902297</v>
+        <v>60.61970977979478</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.81369875945313</v>
+        <v>82.94256127353397</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.34165452698962</v>
+        <v>75.02663963622329</v>
       </c>
       <c r="AD3" t="n">
-        <v>49562.57287902297</v>
+        <v>60619.70977979478</v>
       </c>
       <c r="AE3" t="n">
-        <v>67813.69875945314</v>
+        <v>82942.56127353397</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.41973701353264e-06</v>
+        <v>1.303428564382018e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.612847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>61341.65452698962</v>
+        <v>75026.63963622329</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.63448415647061</v>
+        <v>65.6421198958857</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.43911447421582</v>
+        <v>89.81444436746258</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.48001302265722</v>
+        <v>81.24267985241804</v>
       </c>
       <c r="AD2" t="n">
-        <v>45634.48415647061</v>
+        <v>65642.1198958857</v>
       </c>
       <c r="AE2" t="n">
-        <v>62439.11447421582</v>
+        <v>89814.44436746258</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.350256839267717e-06</v>
+        <v>1.414078162322133e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.867476851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>56480.01302265721</v>
+        <v>81242.67985241803</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.4644437368614</v>
+        <v>90.34176357300413</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.3585135276809</v>
+        <v>123.609586517853</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.11236767524636</v>
+        <v>111.8124610677658</v>
       </c>
       <c r="AD2" t="n">
-        <v>78464.4437368614</v>
+        <v>90341.76357300414</v>
       </c>
       <c r="AE2" t="n">
-        <v>107358.5135276809</v>
+        <v>123609.586517853</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.845520113031201e-06</v>
+        <v>9.161733385300576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.214699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>97112.36767524637</v>
+        <v>111812.4610677658</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.66580435569783</v>
+        <v>67.62837553786113</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.16440932140515</v>
+        <v>92.53212696422651</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.89538499320747</v>
+        <v>83.70099063643916</v>
       </c>
       <c r="AD3" t="n">
-        <v>55665.80435569783</v>
+        <v>67628.37553786114</v>
       </c>
       <c r="AE3" t="n">
-        <v>76164.40932140514</v>
+        <v>92532.12696422651</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.959770065686661e-06</v>
+        <v>1.126851671354623e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.612847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>68895.38499320747</v>
+        <v>83700.99063643916</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.04765298446642</v>
+        <v>67.01022416662973</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.31862734437294</v>
+        <v>91.6863449871943</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.13032326100048</v>
+        <v>82.93592890423217</v>
       </c>
       <c r="AD4" t="n">
-        <v>55047.65298446642</v>
+        <v>67010.22416662972</v>
       </c>
       <c r="AE4" t="n">
-        <v>75318.62734437294</v>
+        <v>91686.3449871943</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.02346456648354e-06</v>
+        <v>1.138894796154403e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.586805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>68130.32326100048</v>
+        <v>82935.92890423218</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.89397857777032</v>
+        <v>64.69365707112</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.10836324149511</v>
+        <v>88.51671568739214</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.94012646899374</v>
+        <v>80.06880457619945</v>
       </c>
       <c r="AD2" t="n">
-        <v>54893.97857777032</v>
+        <v>64693.65707112</v>
       </c>
       <c r="AE2" t="n">
-        <v>75108.36324149511</v>
+        <v>88516.71568739213</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.17147112413981e-06</v>
+        <v>1.414850948658267e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67940.12646899374</v>
+        <v>80068.80457619946</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.15913131980737</v>
+        <v>82.55451149501526</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.36306279103461</v>
+        <v>112.9547246754387</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.07086872819924</v>
+        <v>102.1744842853957</v>
       </c>
       <c r="AD2" t="n">
-        <v>71159.13131980738</v>
+        <v>82554.51149501526</v>
       </c>
       <c r="AE2" t="n">
-        <v>97363.06279103461</v>
+        <v>112954.7246754387</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.346908832532843e-06</v>
+        <v>1.047986741783623e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.029513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>88070.86872819925</v>
+        <v>102174.4842853957</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.0269302725973</v>
+        <v>63.50756179382577</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.18554126511499</v>
+        <v>86.89384780216837</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.39169311632287</v>
+        <v>78.60082092423156</v>
       </c>
       <c r="AD3" t="n">
-        <v>52026.9302725973</v>
+        <v>63507.56179382576</v>
       </c>
       <c r="AE3" t="n">
-        <v>71185.541265115</v>
+        <v>86893.84780216837</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.241913337546063e-06</v>
+        <v>1.223406387875879e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.595486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>64391.69311632287</v>
+        <v>78600.82092423155</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.29474056689956</v>
+        <v>85.94070734145502</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6533416962209</v>
+        <v>117.5878672209528</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.95168943612019</v>
+        <v>106.3654462090237</v>
       </c>
       <c r="AD2" t="n">
-        <v>74294.74056689956</v>
+        <v>85940.70734145503</v>
       </c>
       <c r="AE2" t="n">
-        <v>101653.3416962209</v>
+        <v>117587.8672209528</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137221675265558e-06</v>
+        <v>9.877351944034978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>91951.68943612018</v>
+        <v>106365.4462090238</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.50327216991782</v>
+        <v>65.23449029049387</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.20553738063568</v>
+        <v>89.25670755801677</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.21890363766126</v>
+        <v>80.73817266127703</v>
       </c>
       <c r="AD3" t="n">
-        <v>53503.27216991782</v>
+        <v>65234.49029049386</v>
       </c>
       <c r="AE3" t="n">
-        <v>73205.53738063568</v>
+        <v>89256.70755801677</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.131243109095114e-06</v>
+        <v>1.178856001767554e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.589699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>66218.90363766125</v>
+        <v>80738.17266127703</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.26731544372862</v>
+        <v>108.2824341218752</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.2982586016444</v>
+        <v>148.1568034493303</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.2943546228556</v>
+        <v>134.0169260675461</v>
       </c>
       <c r="AD2" t="n">
-        <v>84267.31544372861</v>
+        <v>108282.4341218752</v>
       </c>
       <c r="AE2" t="n">
-        <v>115298.2586016444</v>
+        <v>148156.8034493303</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.489267596157335e-06</v>
+        <v>8.363165036746508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104294.3546228555</v>
+        <v>134016.9260675461</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.43242038616197</v>
+        <v>84.53279041032913</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.68630366254078</v>
+        <v>115.661493162876</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.79483889196341</v>
+        <v>104.6229225873662</v>
       </c>
       <c r="AD3" t="n">
-        <v>60432.42038616198</v>
+        <v>84532.79041032912</v>
       </c>
       <c r="AE3" t="n">
-        <v>82686.30366254078</v>
+        <v>115661.493162876</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.522092421055682e-06</v>
+        <v>1.02872393494623e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.77488425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>74794.8388919634</v>
+        <v>104622.9225873662</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.99419354053048</v>
+        <v>68.17238983447149</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.61372589160132</v>
+        <v>93.27647132506533</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.30181942056403</v>
+        <v>84.37429581617363</v>
       </c>
       <c r="AD4" t="n">
-        <v>55994.19354053048</v>
+        <v>68172.38983447148</v>
       </c>
       <c r="AE4" t="n">
-        <v>76613.72589160132</v>
+        <v>93276.47132506533</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.976831798086784e-06</v>
+        <v>1.113438431851553e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.563657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>69301.81942056403</v>
+        <v>84374.29581617363</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.58933751839326</v>
+        <v>74.74496364203944</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.95505167046923</v>
+        <v>102.2693567700672</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.08776252860497</v>
+        <v>92.5089128959014</v>
       </c>
       <c r="AD2" t="n">
-        <v>52589.33751839327</v>
+        <v>74744.96364203944</v>
       </c>
       <c r="AE2" t="n">
-        <v>71955.05167046923</v>
+        <v>102269.3567700672</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.043185476240899e-06</v>
+        <v>1.211354930268392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>65087.76252860497</v>
+        <v>92508.91289590141</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.35769667833481</v>
+        <v>61.56352102201532</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.90162222005738</v>
+        <v>84.23392545315279</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.32574809942431</v>
+        <v>76.19475783098073</v>
       </c>
       <c r="AD3" t="n">
-        <v>50357.69667833481</v>
+        <v>61563.52102201532</v>
       </c>
       <c r="AE3" t="n">
-        <v>68901.62222005738</v>
+        <v>84233.9254531528</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.366766991804552e-06</v>
+        <v>1.276216759474662e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>62325.74809942431</v>
+        <v>76194.75783098073</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.88819975995379</v>
+        <v>69.09335691912598</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.52274758981518</v>
+        <v>94.53657912048922</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.26934852161102</v>
+        <v>85.51414069217506</v>
       </c>
       <c r="AD2" t="n">
-        <v>47888.19975995379</v>
+        <v>69093.35691912597</v>
       </c>
       <c r="AE2" t="n">
-        <v>65522.74758981518</v>
+        <v>94536.57912048922</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.475101913182433e-06</v>
+        <v>1.354631814176325e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.664930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>59269.34852161102</v>
+        <v>85514.14069217506</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.1800758301946</v>
+        <v>66.6255053814107</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.1856170720105</v>
+        <v>91.15995577266295</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.15527046024159</v>
+        <v>82.45977753754363</v>
       </c>
       <c r="AD2" t="n">
-        <v>46180.0758301946</v>
+        <v>66625.50538141071</v>
       </c>
       <c r="AE2" t="n">
-        <v>63185.6170720105</v>
+        <v>91159.95577266296</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.468499393271498e-06</v>
+        <v>1.406158472837861e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>57155.27046024159</v>
+        <v>82459.77753754363</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.20170871111909</v>
+        <v>63.71417556071057</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.16116906915231</v>
+        <v>87.17654587317612</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.08333117906365</v>
+        <v>78.85653868811164</v>
       </c>
       <c r="AD2" t="n">
-        <v>54201.70871111909</v>
+        <v>63714.17556071057</v>
       </c>
       <c r="AE2" t="n">
-        <v>74161.16906915231</v>
+        <v>87176.54587317612</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.825126325869347e-06</v>
+        <v>1.385522003200829e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.289930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>67083.33117906365</v>
+        <v>78856.53868811164</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.1660428655961</v>
+        <v>84.68938867530056</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.10900770667</v>
+        <v>115.8757578176377</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.5547445150452</v>
+        <v>104.8167381241999</v>
       </c>
       <c r="AD2" t="n">
-        <v>73166.0428655961</v>
+        <v>84689.38867530056</v>
       </c>
       <c r="AE2" t="n">
-        <v>100109.00770667</v>
+        <v>115875.7578176377</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202852738610548e-06</v>
+        <v>1.009654257628315e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.081597222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>90554.7445150452</v>
+        <v>104816.7381241999</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.62674567209424</v>
+        <v>64.23534282781928</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.00623515669413</v>
+        <v>87.88962992031099</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.13406113474106</v>
+        <v>79.50156699460794</v>
       </c>
       <c r="AD3" t="n">
-        <v>52626.74567209424</v>
+        <v>64235.34282781929</v>
       </c>
       <c r="AE3" t="n">
-        <v>72006.23515669414</v>
+        <v>87889.629920311</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.213832289878367e-06</v>
+        <v>1.205842744905261e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>65134.06113474106</v>
+        <v>79501.56699460794</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.26894551728631</v>
+        <v>105.0720147249427</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1957565895427</v>
+        <v>143.7641659967418</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5833896448898</v>
+        <v>130.0435157683258</v>
       </c>
       <c r="AD2" t="n">
-        <v>81268.94551728631</v>
+        <v>105072.0147249427</v>
       </c>
       <c r="AE2" t="n">
-        <v>111195.7565895427</v>
+        <v>143764.1659967418</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.666300183892924e-06</v>
+        <v>8.755809404377874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.310185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>100583.3896448898</v>
+        <v>130043.5157683258</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.91953833678641</v>
+        <v>81.80785889046341</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.24806758205497</v>
+        <v>111.9331216419033</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.68474323740342</v>
+        <v>101.2503816115517</v>
       </c>
       <c r="AD3" t="n">
-        <v>57919.53833678641</v>
+        <v>81807.85889046341</v>
       </c>
       <c r="AE3" t="n">
-        <v>79248.06758205497</v>
+        <v>111933.1216419033</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.739796368913008e-06</v>
+        <v>1.077010930407295e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.690972222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>71684.74323740343</v>
+        <v>101250.3816115517</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.6384928710585</v>
+        <v>67.71066442975443</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.12704054322396</v>
+        <v>92.64471825644453</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.86158263876847</v>
+        <v>83.80283637375081</v>
       </c>
       <c r="AD4" t="n">
-        <v>55638.49287105849</v>
+        <v>67710.66442975443</v>
       </c>
       <c r="AE4" t="n">
-        <v>76127.04054322395</v>
+        <v>92644.71825644454</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.988220179021081e-06</v>
+        <v>1.1236249810919e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>68861.58263876846</v>
+        <v>83802.8363737508</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.00522201026006</v>
+        <v>72.32560793672661</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.89232729665567</v>
+        <v>98.95908755961909</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.8401472880122</v>
+        <v>89.51457113290536</v>
       </c>
       <c r="AD2" t="n">
-        <v>54005.22201026005</v>
+        <v>72325.60793672661</v>
       </c>
       <c r="AE2" t="n">
-        <v>73892.32729665567</v>
+        <v>98959.08755961909</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.104960095142152e-06</v>
+        <v>1.276711778491973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>66840.1472880122</v>
+        <v>89514.57113290536</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.6952426066917</v>
+        <v>59.5945304356061</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.62697921693902</v>
+        <v>81.53986566709506</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.26819383204133</v>
+        <v>73.7578153297668</v>
       </c>
       <c r="AD2" t="n">
-        <v>48695.2426066917</v>
+        <v>59594.5304356061</v>
       </c>
       <c r="AE2" t="n">
-        <v>66626.97921693901</v>
+        <v>81539.86566709506</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.444271695588171e-06</v>
+        <v>1.327058210235027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>60268.19383204133</v>
+        <v>73757.8153297668</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.03513410754689</v>
+        <v>78.47240791052208</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.6697425815635</v>
+        <v>107.3694104614379</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.35248995625615</v>
+        <v>97.1222246209396</v>
       </c>
       <c r="AD2" t="n">
-        <v>56035.13410754689</v>
+        <v>78472.40791052207</v>
       </c>
       <c r="AE2" t="n">
-        <v>76669.74258156349</v>
+        <v>107369.4104614379</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681466920768135e-06</v>
+        <v>1.125603199504553e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.881944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>69352.48995625615</v>
+        <v>97122.22462093961</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.03850624910851</v>
+        <v>62.38515443245353</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.83313590998797</v>
+        <v>85.35812053322161</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.16835943017588</v>
+        <v>77.21166131042582</v>
       </c>
       <c r="AD3" t="n">
-        <v>51038.5062491085</v>
+        <v>62385.15443245354</v>
       </c>
       <c r="AE3" t="n">
-        <v>69833.13590998798</v>
+        <v>85358.12053322161</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.331915897680311e-06</v>
+        <v>1.254469117362933e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.586805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>63168.35943017589</v>
+        <v>77211.66131042583</v>
       </c>
     </row>
   </sheetData>
